--- a/public/template/invoice_template.xlsx
+++ b/public/template/invoice_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A99025-E8E7-4A07-A4DA-341BE023C53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE44BE3-0967-407E-B802-7A89FBB0CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -662,9 +662,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -686,9 +683,6 @@
     <xf numFmtId="183" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -696,10 +690,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -718,6 +712,12 @@
     </xf>
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:EC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1879,8 +1879,8 @@
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="70">
@@ -2017,8 +2017,8 @@
       <c r="F18" s="65"/>
       <c r="G18" s="65"/>
       <c r="H18" s="66"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61">
@@ -2150,13 +2150,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="67"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="68"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
       <c r="M19" s="63">
@@ -2293,8 +2293,8 @@
       <c r="F20" s="65"/>
       <c r="G20" s="65"/>
       <c r="H20" s="66"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61">
@@ -2426,13 +2426,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="68"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="M21" s="63">
@@ -2569,8 +2569,8 @@
       <c r="F22" s="65"/>
       <c r="G22" s="65"/>
       <c r="H22" s="66"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="61"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61">
@@ -2702,13 +2702,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="67"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="68"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="M23" s="63">
@@ -2845,8 +2845,8 @@
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="40"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
       <c r="M24" s="61">
@@ -2983,8 +2983,8 @@
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="63">
@@ -3121,8 +3121,8 @@
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
       <c r="M26" s="61">
@@ -3259,8 +3259,8 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="63">
@@ -3397,8 +3397,8 @@
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="40"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="61"/>
       <c r="L28" s="61"/>
       <c r="M28" s="61">
@@ -3535,8 +3535,8 @@
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="63"/>
       <c r="L29" s="63"/>
       <c r="M29" s="63">
@@ -3673,8 +3673,8 @@
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
       <c r="M30" s="61">
@@ -3811,8 +3811,8 @@
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
       <c r="M31" s="63">
@@ -3949,8 +3949,8 @@
       <c r="F32" s="60"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="40"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="61"/>
       <c r="L32" s="61"/>
       <c r="M32" s="61">
@@ -4087,8 +4087,8 @@
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="63"/>
       <c r="L33" s="63"/>
       <c r="M33" s="63">
@@ -4225,8 +4225,8 @@
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="40"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39"/>
       <c r="K34" s="61"/>
       <c r="L34" s="61"/>
       <c r="M34" s="61">
@@ -4363,8 +4363,8 @@
       <c r="F35" s="62"/>
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="63"/>
       <c r="L35" s="63"/>
       <c r="M35" s="63">
@@ -4501,8 +4501,8 @@
       <c r="F36" s="60"/>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="40"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="61"/>
       <c r="L36" s="61"/>
       <c r="M36" s="61">
@@ -4639,8 +4639,8 @@
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="63"/>
       <c r="L37" s="63"/>
       <c r="M37" s="63">
@@ -4777,8 +4777,8 @@
       <c r="F38" s="60"/>
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="40"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
       <c r="M38" s="61">
@@ -4915,8 +4915,8 @@
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
       <c r="M39" s="63">
@@ -5053,8 +5053,8 @@
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="42"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58">
@@ -5313,13 +5313,13 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
       <c r="J42" s="59" t="s">
         <v>11</v>
@@ -5328,11 +5328,11 @@
       <c r="L42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="53">
+      <c r="M42" s="51">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="53"/>
+      <c r="N42" s="51"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5452,26 +5452,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="52" t="s">
+      <c r="J43" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="52"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="53">
+      <c r="M43" s="51">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="53"/>
+      <c r="N43" s="51"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5591,26 +5591,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="55" t="s">
+      <c r="J44" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="55"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="54">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="56"/>
+      <c r="N44" s="54"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5866,18 +5866,17 @@
       <c r="B46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5980,19 +5979,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6094,19 +6093,19 @@
       <c r="DK47"/>
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="48"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6362,18 +6361,18 @@
         <v>17</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="47"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6495,14 +6494,18 @@
     <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
       <c r="C51" s="31"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="16"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="48"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
@@ -6743,6 +6746,7 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="D50:N51"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:N3"/>
@@ -6829,14 +6833,13 @@
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D46:N48"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="E51:G51"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>

--- a/public/template/invoice_template.xlsx
+++ b/public/template/invoice_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE44BE3-0967-407E-B802-7A89FBB0CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D9E72A-7FCD-4898-94D7-CB79092C7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -695,15 +695,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -714,112 +816,10 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,12 +1225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1364,17 +1364,17 @@
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1384,8 +1384,8 @@
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1409,39 +1409,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="90" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1483,15 +1483,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1521,18 +1521,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="78">
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="66">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1597,18 +1597,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1731,26 +1731,26 @@
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83" t="s">
+      <c r="J16" s="71"/>
+      <c r="K16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="83"/>
+      <c r="N16" s="71"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1873,21 +1873,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="42"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="70">
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="70"/>
+      <c r="N17" s="58"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2011,21 +2011,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="43"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="61"/>
+      <c r="N18" s="75"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2149,21 +2149,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="68"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="42"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63">
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="63"/>
+      <c r="N19" s="57"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2287,21 +2287,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="43"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="61"/>
+      <c r="N20" s="75"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2425,21 +2425,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="68"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="42"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="63"/>
+      <c r="N21" s="57"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2563,21 +2563,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="43"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="61"/>
+      <c r="N22" s="75"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2701,21 +2701,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="68"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
       <c r="I23" s="42"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="63"/>
+      <c r="N23" s="57"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2839,21 +2839,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="43"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="61"/>
+      <c r="N24" s="75"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -2977,21 +2977,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="42"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="63"/>
+      <c r="N25" s="57"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3115,21 +3115,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="43"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="61"/>
+      <c r="N26" s="75"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3253,21 +3253,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="42"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63">
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="63"/>
+      <c r="N27" s="57"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3391,21 +3391,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="43"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="75"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3529,21 +3529,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="42"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63">
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="63"/>
+      <c r="N29" s="57"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3667,21 +3667,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="43"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61">
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="61"/>
+      <c r="N30" s="75"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3805,21 +3805,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="42"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63">
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="63"/>
+      <c r="N31" s="57"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3943,21 +3943,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="43"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61">
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="61"/>
+      <c r="N32" s="75"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4081,21 +4081,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
       <c r="I33" s="42"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63">
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="63"/>
+      <c r="N33" s="57"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4219,21 +4219,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
       <c r="I34" s="43"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61">
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="61"/>
+      <c r="N34" s="75"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4357,21 +4357,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="42"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63">
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="63"/>
+      <c r="N35" s="57"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4495,21 +4495,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="43"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61">
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="61"/>
+      <c r="N36" s="75"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4633,21 +4633,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="42"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63">
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="63"/>
+      <c r="N37" s="57"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4771,21 +4771,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="43"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61">
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="61"/>
+      <c r="N38" s="75"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -4909,21 +4909,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
       <c r="I39" s="42"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63">
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="63"/>
+      <c r="N39" s="57"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5047,21 +5047,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
       <c r="I40" s="44"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58">
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="58"/>
+      <c r="N40" s="82"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5313,26 +5313,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="59" t="s">
+      <c r="J42" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="59"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="51">
+      <c r="M42" s="84">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="51"/>
+      <c r="N42" s="84"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5452,26 +5452,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="50"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="51">
+      <c r="M43" s="84">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="51"/>
+      <c r="N43" s="84"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5591,26 +5591,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="53" t="s">
+      <c r="J44" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="53"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="88">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="54"/>
+      <c r="N44" s="88"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5866,17 +5866,17 @@
       <c r="B46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5981,17 +5981,17 @@
       <c r="A47" s="13"/>
       <c r="B47" s="46"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6095,17 +6095,17 @@
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="46"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6361,17 +6361,17 @@
         <v>17</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
       <c r="O50" s="47"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -6494,17 +6494,17 @@
     <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
       <c r="O51" s="48"/>
       <c r="Q51"/>
       <c r="R51"/>
@@ -6746,6 +6746,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="D46:N48"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="D50:N51"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="M2:N2"/>
@@ -6762,90 +6846,6 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D46:N48"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/invoice_template.xlsx
+++ b/public/template/invoice_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syou5\wSystem\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D9E72A-7FCD-4898-94D7-CB79092C7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1B62B-5040-46D3-9441-0162E45BF13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="3000" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +695,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,6 +779,12 @@
     <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -785,18 +794,33 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -814,12 +838,6 @@
     </xf>
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,12 +1243,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1351,10 +1369,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1364,17 +1382,17 @@
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1384,8 +1402,8 @@
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1409,39 +1427,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="55" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1483,15 +1501,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1503,13 +1521,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1521,18 +1539,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="66">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="67">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1544,13 +1562,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1597,18 +1615,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1731,26 +1749,26 @@
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="72"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1873,21 +1891,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="42"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58">
-        <f>I17*K17</f>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59">
+        <f>IF(I17*K17=0, K17, I17*K17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="58"/>
+      <c r="N17" s="59"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2011,21 +2029,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="43"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75">
-        <f>I18*K18</f>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77">
+        <f>IF(I18*K18=0, K18, I18*K18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="75"/>
+      <c r="N18" s="78"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2149,21 +2167,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="42"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57">
-        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="82">
+        <f>IF(I19*K19=0, K19, I19*K19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="57"/>
+      <c r="N19" s="83"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2287,21 +2305,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="43"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75">
-        <f t="shared" si="0"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77">
+        <f t="shared" ref="M20:M38" si="0">IF(I20*K20=0, K20, I20*K20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="75"/>
+      <c r="N20" s="78"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2425,21 +2443,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="42"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="57"/>
+      <c r="N21" s="83"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2563,21 +2581,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="43"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75">
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="75"/>
+      <c r="N22" s="78"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2701,21 +2719,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="42"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57">
-        <f>I23*K23</f>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="57"/>
+      <c r="N23" s="83"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2839,21 +2857,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="43"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75">
-        <f>I24*K24</f>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="75"/>
+      <c r="N24" s="78"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -2977,21 +2995,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
       <c r="I25" s="42"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57">
-        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="57"/>
+      <c r="N25" s="83"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3115,21 +3133,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="43"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75">
-        <f t="shared" si="2"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="75"/>
+      <c r="N26" s="78"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3253,21 +3271,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="42"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57">
-        <f t="shared" si="2"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="57"/>
+      <c r="N27" s="83"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3391,21 +3409,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
       <c r="I28" s="43"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75">
-        <f t="shared" si="2"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="75"/>
+      <c r="N28" s="78"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3529,21 +3547,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="42"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57">
-        <f t="shared" si="2"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="83"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3667,21 +3685,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="43"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75">
-        <f t="shared" si="2"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="75"/>
+      <c r="N30" s="78"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3805,21 +3823,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
       <c r="I31" s="42"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57">
-        <f t="shared" si="2"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="57"/>
+      <c r="N31" s="83"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3943,21 +3961,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="43"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75">
-        <f t="shared" si="2"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N32" s="75"/>
+      <c r="N32" s="78"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4081,21 +4099,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="42"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57">
-        <f t="shared" si="2"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="83"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4219,21 +4237,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
       <c r="I34" s="43"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75">
-        <f t="shared" si="2"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="75"/>
+      <c r="N34" s="78"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4357,21 +4375,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="42"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57">
-        <f t="shared" si="2"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="57"/>
+      <c r="N35" s="83"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4495,21 +4513,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="43"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75">
-        <f t="shared" si="2"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N36" s="75"/>
+      <c r="N36" s="78"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4633,21 +4651,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="42"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57">
-        <f t="shared" si="2"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="57"/>
+      <c r="N37" s="83"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4771,21 +4789,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="43"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75">
-        <f t="shared" si="2"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="75"/>
+      <c r="N38" s="78"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -4909,21 +4927,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="42"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57">
-        <f t="shared" si="2"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="82">
+        <f>IF(I39*K39=0, K39, I39*K39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="57"/>
+      <c r="N39" s="83"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5047,21 +5065,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
       <c r="I40" s="44"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82">
-        <f t="shared" si="2"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="89">
+        <f>IF(I40*K40=0, K40, I40*K40)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="90"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5313,26 +5331,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="83"/>
+      <c r="K42" s="91"/>
       <c r="L42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="84">
+      <c r="M42" s="92">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="84"/>
+      <c r="N42" s="92"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5452,26 +5470,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="85"/>
+      <c r="K43" s="93"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="92">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="84"/>
+      <c r="N43" s="92"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5591,26 +5609,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="87" t="s">
+      <c r="J44" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="87"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="88">
+      <c r="M44" s="96">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="88"/>
+      <c r="N44" s="96"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5866,17 +5884,17 @@
       <c r="B46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5981,17 +5999,17 @@
       <c r="A47" s="13"/>
       <c r="B47" s="46"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6095,17 +6113,17 @@
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="46"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6361,17 +6379,17 @@
         <v>17</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
       <c r="O50" s="47"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -6494,17 +6512,17 @@
     <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
       <c r="O51" s="48"/>
       <c r="Q51"/>
       <c r="R51"/>
